--- a/biology/Médecine/Emanuel_Felke/Emanuel_Felke.xlsx
+++ b/biology/Médecine/Emanuel_Felke/Emanuel_Felke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erdmann Leopold Stephanus Emanuel Felke, né le 7 février 1856 à Kläden près de Stendal et mort le 16 août 1926 à Munich, est un pasteur protestant connu pour défendre les médecines naturelles. Il vit et pratique de 1896 à 1914 à Repelen (de), près de Moers, et de 1915 à 1925 à Bad Sobernheim. Il développe les cures Felke portant son nom, a recours à l'iridologie et est considéré comme le fondateur de l'homéopathie complexiste[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erdmann Leopold Stephanus Emanuel Felke, né le 7 février 1856 à Kläden près de Stendal et mort le 16 août 1926 à Munich, est un pasteur protestant connu pour défendre les médecines naturelles. Il vit et pratique de 1896 à 1914 à Repelen (de), près de Moers, et de 1915 à 1925 à Bad Sobernheim. Il développe les cures Felke portant son nom, a recours à l'iridologie et est considéré comme le fondateur de l'homéopathie complexiste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de ses traitements à base d’argile et de ses bains d’argile, Felke fût souvent surnommé le Pasteur Argile. Les régimes de Felke étaient basés sur une alimentation saine et des exercices physiques. Les patients recevaient des repas contenant peu de viande, des traitements à base de terre médicinale et des bains froids en extérieur dans des baignoires en zinc. Ils devaient dormir par terre sur un sol argileux ou sur des sacs de paille dans des cabines ouvertes exposées à l’air et à la lumière.
 Felke, fils de professeur et petit fils de pasteur, s’intéressa à la médecine alors qu’il étudia la théologie. Il assista aux cours de médecine à l’université pendant plusieurs semestres. Il a toujours été intéressé par les plantes médicinales tout comme le célèbre Hahnemann (inventeur de l’homéopathie) et Priessnitz (hydrothérapie). Dans sa première paroisse de Cronenberg, il traita, lors de l’épidémie de diphtérie, des patients avec des remèdes homéopathiques et obtint leur reconnaissance. En 1894, il commença son activité de pasteur au sein de l’église protestante de Repelen. En 1896, des citoyens créèrent à Repelen une société d’homéopathie pour soutenir Felke dans ses recherches. Il distribuait bien souvent et gratuitement ses remèdes homéopathiques.
@@ -549,10 +563,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iridologie
-Felke était connu pour sa pratique de l’iridologie. Même si cette pratique de diagnostic était acceptée par un grand nombre de praticien, de nombreux médecins la considèrent comme une pseudo-science.  Felke fut accusé pour coups et blessures et 16 procès eurent lieu. Il fut même inculpé pour homicide involontaire, mais fut toujours acquitté. Durant le dernier procès en 1909, Felke dut devant de nombreux médecins (notamment le renommé chirurgien et conseiller municipal Carl Garrè) diagnostiquer 20 patients uniquement en regardant leur iris. Felke protesta car il lui fut interdit de discuter avec les patients pour connaitre leurs antécédents médicaux. Il s'agit de la première étape pour aboutir au diagnostic. Ce processus d’interrogation du patient par le thérapeute pour retracer les douleurs physiques et psychologiques était souvent rejeté par les médecins. Il est impossible de savoir combien de diagnostics corrects Felke a réussi à établir, mais il fut capable de convaincre les juges.
-Cures Felke
-Les cures de Felke sont composées des éléments de base suivant : bain de siège, bain d'air et de lumière, bain d’argile, et dormir à même le sol. À cela s’ajoute une alimentation avec peu de viande, beaucoup de légumes, du blé vert, des pommes de terre et des fruits. Felke espérait supprimer toutes toxines du corps grâce à une sous-alimentation. Pour certains patients, Felke prévoyait d’autres régimes en fonction de leur diagnostic. En 1992, un sentier pieds nus inspiré des idées de Felke a été créé à Bad Sobernheim. La boucle de 3,5 kilomètres comporte plusieurs passages composés de pierres naturelles, de gravillons, de boue ou de bois activant les sens, les réflexes du pied et l’ensemble de l’appareil locomoteur.
+          <t>Iridologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felke était connu pour sa pratique de l’iridologie. Même si cette pratique de diagnostic était acceptée par un grand nombre de praticien, de nombreux médecins la considèrent comme une pseudo-science.  Felke fut accusé pour coups et blessures et 16 procès eurent lieu. Il fut même inculpé pour homicide involontaire, mais fut toujours acquitté. Durant le dernier procès en 1909, Felke dut devant de nombreux médecins (notamment le renommé chirurgien et conseiller municipal Carl Garrè) diagnostiquer 20 patients uniquement en regardant leur iris. Felke protesta car il lui fut interdit de discuter avec les patients pour connaitre leurs antécédents médicaux. Il s'agit de la première étape pour aboutir au diagnostic. Ce processus d’interrogation du patient par le thérapeute pour retracer les douleurs physiques et psychologiques était souvent rejeté par les médecins. Il est impossible de savoir combien de diagnostics corrects Felke a réussi à établir, mais il fut capable de convaincre les juges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emanuel_Felke</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emanuel_Felke</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cures Felke</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cures de Felke sont composées des éléments de base suivant : bain de siège, bain d'air et de lumière, bain d’argile, et dormir à même le sol. À cela s’ajoute une alimentation avec peu de viande, beaucoup de légumes, du blé vert, des pommes de terre et des fruits. Felke espérait supprimer toutes toxines du corps grâce à une sous-alimentation. Pour certains patients, Felke prévoyait d’autres régimes en fonction de leur diagnostic. En 1992, un sentier pieds nus inspiré des idées de Felke a été créé à Bad Sobernheim. La boucle de 3,5 kilomètres comporte plusieurs passages composés de pierres naturelles, de gravillons, de boue ou de bois activant les sens, les réflexes du pied et l’ensemble de l’appareil locomoteur.
 Il existe actuellement toujours de nombreuses associations à l’effigie de Felke. Bad Sobernheim proposent toujours les cures Felke avec ses trois stations thermales et les autres aux alentours notamment à Diez sur le Lahn et à Meddersheim. Les bains d’argile ainsi que l’iridologie sont devenus au début du XXIe siècle des pratiques courantes de la naturopathie. L’institut Felke de l’Iridologie a été fondé en 1984. Il existe également, à Bad Sobernheim, un groupe de travail dédié aux thérapies de Felke, et le fabricant de médicaments d’homéopathie complexiste Hevert Arzneimittel GmbH &amp; Co. KG. Tout comme Kneipp, Preissnitz, Rikli, Kuhne et Just, Felke fait partie des praticiens influents ayant joué un rôle majeur dans le développement de la naturopathie au début du XXe siècle. Cependant, Felke ne se considérait pas comme l’inventeur d’un nouveau type de traitement. « L’homéopathie m’a convaincu par sa simplicité et son uniformité. C’est la colonne vertébrale de l’ensemble de ma méthode. » Felke prescrivait, au début, essentiellement des remèdes homéopathique uniciste avant de se tourner vers l’homéopathie complexiste. Durant les 10 dernières années de sa vie, il utilisait exclusivement ce type de remède, partant du principe que le traitement agirait plus vite si la maladie complexe était guérit par un « médicament complexe. »
 </t>
         </is>
